--- a/data/MetaData.xlsx
+++ b/data/MetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Desktop/ParaSpace/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Library/CloudStorage/Dropbox/ParaSpace/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2876638A-65D2-C64F-B613-E28F4805597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EBEEE7-A3B0-3B4C-8F84-A699F68B2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15600" windowHeight="15920" firstSheet="5" activeTab="7" xr2:uid="{19BFBDF7-72DB-0D4C-A372-B4F878066457}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15600" windowHeight="15920" activeTab="1" xr2:uid="{19BFBDF7-72DB-0D4C-A372-B4F878066457}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -882,7 +882,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -920,7 +920,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1026,7 +1026,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B083323B-7900-6F47-8F88-6318AED3E121}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2296,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C0292D-DFFE-7246-895E-55E4C0E995C3}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/MetaData.xlsx
+++ b/data/MetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Library/CloudStorage/Dropbox/ParaSpace/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EBEEE7-A3B0-3B4C-8F84-A699F68B2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4326A21D-6687-044E-B401-619D7C8EEC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15600" windowHeight="15920" activeTab="1" xr2:uid="{19BFBDF7-72DB-0D4C-A372-B4F878066457}"/>
+    <workbookView xWindow="15180" yWindow="500" windowWidth="13620" windowHeight="15920" firstSheet="4" activeTab="6" xr2:uid="{19BFBDF7-72DB-0D4C-A372-B4F878066457}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B083323B-7900-6F47-8F88-6318AED3E121}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2019,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E707BE8-AFD8-744C-A205-88E9514B73B1}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
